--- a/data/trans_orig/P04B3_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>86555</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64184</v>
+        <v>64536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111821</v>
+        <v>111819</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2122520558981747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1573936675228012</v>
+        <v>0.1582579221135628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2742102177805172</v>
+        <v>0.2742059760954975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -762,19 +762,19 @@
         <v>77334</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57103</v>
+        <v>57802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97681</v>
+        <v>101240</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2133289694589025</v>
+        <v>0.2133289694589026</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1575209002501552</v>
+        <v>0.1594489431362968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2694558098929459</v>
+        <v>0.279273548285625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -783,19 +783,19 @@
         <v>163889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132975</v>
+        <v>133482</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198209</v>
+        <v>199548</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.212758860401195</v>
+        <v>0.2127588604011949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1726264412310846</v>
+        <v>0.1732841937509361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2573128617216417</v>
+        <v>0.2590507320034252</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>45833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28000</v>
+        <v>29182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71570</v>
+        <v>69191</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1123927267876387</v>
+        <v>0.1123927267876386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06866211502950431</v>
+        <v>0.07156147900545641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1755053531393656</v>
+        <v>0.1696707687198429</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -833,19 +833,19 @@
         <v>54655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38607</v>
+        <v>37651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75646</v>
+        <v>76405</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1507672994395099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1064993214241689</v>
+        <v>0.1038608734847255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2086719638427429</v>
+        <v>0.2107663285735155</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -854,19 +854,19 @@
         <v>100488</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74784</v>
+        <v>77118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130290</v>
+        <v>132640</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1304521207173625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09708327521751794</v>
+        <v>0.100113591853372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1691404051281207</v>
+        <v>0.1721912594072867</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>71429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47849</v>
+        <v>48848</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101630</v>
+        <v>100150</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1751601179348878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1173374070283773</v>
+        <v>0.1197871347776744</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2492192118280763</v>
+        <v>0.2455906322483437</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -904,19 +904,19 @@
         <v>57013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42009</v>
+        <v>39366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80528</v>
+        <v>78271</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1572709907444716</v>
+        <v>0.1572709907444715</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1158829485154879</v>
+        <v>0.1085928934466953</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.22213797997595</v>
+        <v>0.2159123216911388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -925,19 +925,19 @@
         <v>128442</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99211</v>
+        <v>97060</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>164874</v>
+        <v>163460</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.166741345485707</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1287945566510892</v>
+        <v>0.1260015740790557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.214037835558431</v>
+        <v>0.2122017091870785</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>203976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>171069</v>
+        <v>170375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>236016</v>
+        <v>237162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.500195099379299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4194993318622614</v>
+        <v>0.4177976395338455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5787644213427803</v>
+        <v>0.5815735250539871</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -975,19 +975,19 @@
         <v>173510</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147692</v>
+        <v>148449</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>198707</v>
+        <v>201286</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4786327403571157</v>
+        <v>0.4786327403571158</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4074120033158161</v>
+        <v>0.4095011942048651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5481404570786605</v>
+        <v>0.5552534658642454</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -996,19 +996,19 @@
         <v>377486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>337253</v>
+        <v>333209</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>418158</v>
+        <v>417006</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4900476733957355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4378168773703984</v>
+        <v>0.4325681255101348</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5428479079360472</v>
+        <v>0.5413522444675239</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>107311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>85678</v>
+        <v>86542</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>130312</v>
+        <v>128476</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2257998441328327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1802814974383151</v>
+        <v>0.1820992664282655</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2741994247549071</v>
+        <v>0.2703348947171217</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>93</v>
@@ -1121,19 +1121,19 @@
         <v>100557</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>83068</v>
+        <v>82846</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>121052</v>
+        <v>120433</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2008099862625831</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1658845696098659</v>
+        <v>0.1654410312523544</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2417385335893153</v>
+        <v>0.2405021379656777</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>170</v>
@@ -1142,19 +1142,19 @@
         <v>207868</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>180374</v>
+        <v>179573</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>237211</v>
+        <v>239573</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2129783338374467</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1848089271236537</v>
+        <v>0.1839873397039336</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2430432768532824</v>
+        <v>0.2454629741215048</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>60785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44036</v>
+        <v>43126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80469</v>
+        <v>80943</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1279012273705215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09265838740912476</v>
+        <v>0.09074492798725717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1693210367315948</v>
+        <v>0.1703187534348089</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1192,19 +1192,19 @@
         <v>57832</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43709</v>
+        <v>44028</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73203</v>
+        <v>73706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1154886346816171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08728554530294538</v>
+        <v>0.0879220732204313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1461841462460447</v>
+        <v>0.1471896585214741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -1213,19 +1213,19 @@
         <v>118617</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96619</v>
+        <v>97296</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144315</v>
+        <v>142672</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.121532716361794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09899468061651884</v>
+        <v>0.09968774757744049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1478626546020039</v>
+        <v>0.1461799751394767</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>86810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65437</v>
+        <v>65898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110748</v>
+        <v>115489</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1826630989318276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1376902679752683</v>
+        <v>0.1386615424725259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2330332080816192</v>
+        <v>0.2430083323518062</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -1263,19 +1263,19 @@
         <v>101474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83000</v>
+        <v>83063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121859</v>
+        <v>121431</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2026420454021882</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1657496723165311</v>
+        <v>0.1658742524527812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2433491564444098</v>
+        <v>0.2424956622405476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -1284,19 +1284,19 @@
         <v>188285</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160388</v>
+        <v>162193</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>221310</v>
+        <v>220496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1929136681503765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1643309816341202</v>
+        <v>0.1661803194794101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2267505941891759</v>
+        <v>0.2259172161333769</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>220342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>191176</v>
+        <v>192858</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>248923</v>
+        <v>248513</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4636358295648183</v>
+        <v>0.4636358295648181</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4022665763935149</v>
+        <v>0.4058068627034124</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5237762754443275</v>
+        <v>0.5229137742879754</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>223</v>
@@ -1334,19 +1334,19 @@
         <v>240894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216034</v>
+        <v>216728</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>264246</v>
+        <v>264954</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4810593336536116</v>
+        <v>0.4810593336536115</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4314157808014011</v>
+        <v>0.4328016518427636</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5276936157986809</v>
+        <v>0.5291060469927112</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>361</v>
@@ -1355,19 +1355,19 @@
         <v>461236</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>423012</v>
+        <v>424873</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>498733</v>
+        <v>496017</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4725752816503827</v>
+        <v>0.4725752816503828</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4334121831273122</v>
+        <v>0.4353187951480653</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5109943261910269</v>
+        <v>0.5082117869519742</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>126858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105788</v>
+        <v>107331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147583</v>
+        <v>148187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2047224573423712</v>
+        <v>0.2047224573423711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1707202209482584</v>
+        <v>0.1732097687518575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.238168768849843</v>
+        <v>0.239143346363284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -1480,19 +1480,19 @@
         <v>117083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102134</v>
+        <v>101933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135567</v>
+        <v>135178</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.188394162398264</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1643401664139694</v>
+        <v>0.1640171717442933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2181358349887416</v>
+        <v>0.217510007694822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>272</v>
@@ -1501,19 +1501,19 @@
         <v>243941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218716</v>
+        <v>219038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270991</v>
+        <v>272319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1965463456134901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1762226510855676</v>
+        <v>0.1764816500509256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2183410015182335</v>
+        <v>0.2194106431594433</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>71750</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55880</v>
+        <v>53563</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>89157</v>
+        <v>88364</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1157900496392667</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09017856386902097</v>
+        <v>0.08643880606074035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1438810782291397</v>
+        <v>0.1426009525962493</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>91</v>
@@ -1551,19 +1551,19 @@
         <v>70501</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58856</v>
+        <v>58155</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>86456</v>
+        <v>85481</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.113440724825091</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09470286735052083</v>
+        <v>0.09357488937015153</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1391142846216715</v>
+        <v>0.1375444018655941</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>155</v>
@@ -1572,19 +1572,19 @@
         <v>142251</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>120887</v>
+        <v>120818</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>166220</v>
+        <v>164513</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1146136658077715</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09739996823165346</v>
+        <v>0.09734426369542855</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1339256716699009</v>
+        <v>0.1325503997884144</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>116186</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96503</v>
+        <v>96309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137991</v>
+        <v>136364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1875003270418748</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.155735535071239</v>
+        <v>0.1554231112242864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2226890500594653</v>
+        <v>0.2200628319334996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -1622,19 +1622,19 @@
         <v>117864</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103380</v>
+        <v>101201</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136475</v>
+        <v>134399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1896516835573397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1663449985057768</v>
+        <v>0.1628386184979064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.219597867052113</v>
+        <v>0.2162570603336598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>250</v>
@@ -1643,19 +1643,19 @@
         <v>234051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>210052</v>
+        <v>208876</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>263239</v>
+        <v>260552</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1885775816663967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1692412990865558</v>
+        <v>0.1682937321218152</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2120948960136603</v>
+        <v>0.2099302459009315</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>304864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277843</v>
+        <v>276954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333784</v>
+        <v>331468</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4919871659764876</v>
+        <v>0.4919871659764873</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4483810382611573</v>
+        <v>0.446945411915419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5386574445496911</v>
+        <v>0.5349201059820629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>448</v>
@@ -1693,19 +1693,19 @@
         <v>316030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>292774</v>
+        <v>295350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>334542</v>
+        <v>338292</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5085134292193052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4710931756815766</v>
+        <v>0.4752387889834762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5383001691286864</v>
+        <v>0.5443348980662039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>714</v>
@@ -1714,19 +1714,19 @@
         <v>620894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>586934</v>
+        <v>587641</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>655529</v>
+        <v>654932</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5002624069123417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4729001333812882</v>
+        <v>0.4734702605537579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5281680870912603</v>
+        <v>0.5276867489257018</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>117685</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99552</v>
+        <v>101462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138019</v>
+        <v>138956</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1679729638272536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1420914035497302</v>
+        <v>0.1448182852005781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1969968146454106</v>
+        <v>0.198333588052956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>203</v>
@@ -1839,19 +1839,19 @@
         <v>141716</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125709</v>
+        <v>125574</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160878</v>
+        <v>160933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1928644528079055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1710803551567038</v>
+        <v>0.1708957930010846</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2189419399508379</v>
+        <v>0.2190175349641651</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>315</v>
@@ -1860,19 +1860,19 @@
         <v>259401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>233517</v>
+        <v>230635</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288495</v>
+        <v>285792</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1807150652887763</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1626828173728092</v>
+        <v>0.1606749822660091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2009835775852759</v>
+        <v>0.1991004800125027</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>102364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84789</v>
+        <v>82278</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124230</v>
+        <v>122255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1461054419228115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1210205360201158</v>
+        <v>0.1174371881081561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1773157996660249</v>
+        <v>0.1744967686919413</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>162</v>
@@ -1910,19 +1910,19 @@
         <v>110654</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97482</v>
+        <v>95003</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127648</v>
+        <v>125304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1505909656290234</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1326651613789175</v>
+        <v>0.129291203350332</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1737182832381323</v>
+        <v>0.170528371386405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>255</v>
@@ -1931,19 +1931,19 @@
         <v>213018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>187603</v>
+        <v>188464</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>237365</v>
+        <v>238951</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1484016082235516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1306962394816445</v>
+        <v>0.131295658155494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1653632203135479</v>
+        <v>0.1664682995272376</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>133360</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>113550</v>
+        <v>113338</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>155957</v>
+        <v>155371</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1903463453789384</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1620710855772235</v>
+        <v>0.1617691247200508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2225996289049573</v>
+        <v>0.2217631527230179</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>199</v>
@@ -1981,19 +1981,19 @@
         <v>135396</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>120232</v>
+        <v>118648</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>152790</v>
+        <v>151510</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1842628223092522</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.163626614135709</v>
+        <v>0.1614709577566125</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2079353789394553</v>
+        <v>0.2061931812878124</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>317</v>
@@ -2002,19 +2002,19 @@
         <v>268756</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>239504</v>
+        <v>242948</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>297142</v>
+        <v>298363</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1872321536864403</v>
+        <v>0.1872321536864402</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1668533177023153</v>
+        <v>0.1692530431869499</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.207007684396352</v>
+        <v>0.207858236838314</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>347208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>320209</v>
+        <v>322368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>374386</v>
+        <v>374643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4955752488709966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4570385634523281</v>
+        <v>0.46011976269004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5343660876982229</v>
+        <v>0.5347329843074984</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>574</v>
@@ -2052,19 +2052,19 @@
         <v>347031</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>325370</v>
+        <v>326453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>367826</v>
+        <v>368911</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4722817592538188</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4428020357031265</v>
+        <v>0.4442768199700998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5005814630711751</v>
+        <v>0.5020583965085321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>916</v>
@@ -2073,19 +2073,19 @@
         <v>694240</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>657395</v>
+        <v>660112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>731072</v>
+        <v>729844</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4836511728012318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4579827514885292</v>
+        <v>0.4598750639453105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5093104088495881</v>
+        <v>0.5084549050756179</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>117894</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101049</v>
+        <v>101473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>137569</v>
+        <v>137225</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1934766518586792</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.165832551430245</v>
+        <v>0.1665284437871788</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2257655604627438</v>
+        <v>0.225200750732556</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>194</v>
@@ -2198,19 +2198,19 @@
         <v>127691</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>112835</v>
+        <v>112464</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>143757</v>
+        <v>143719</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2099667227621453</v>
+        <v>0.2099667227621454</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1855385222434791</v>
+        <v>0.1849282390996874</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2363851362829673</v>
+        <v>0.2363218188807514</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>329</v>
@@ -2219,19 +2219,19 @@
         <v>245585</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>222097</v>
+        <v>220988</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>271214</v>
+        <v>270213</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2017135679383695</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1824216912602294</v>
+        <v>0.1815101355285052</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2227637749333508</v>
+        <v>0.2219418400311365</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>96055</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81071</v>
+        <v>79280</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>115380</v>
+        <v>112868</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1576362277008841</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1330466945644322</v>
+        <v>0.130106194354481</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1893510601986184</v>
+        <v>0.185228806557679</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -2269,19 +2269,19 @@
         <v>94341</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>81907</v>
+        <v>81985</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110650</v>
+        <v>108554</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1551275772026573</v>
+        <v>0.1551275772026574</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1346819291141458</v>
+        <v>0.1348102207872488</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.181945506348162</v>
+        <v>0.1784994572300009</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>250</v>
@@ -2290,19 +2290,19 @@
         <v>190396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168971</v>
+        <v>169442</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>214166</v>
+        <v>212818</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1563831376597234</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1387863046779386</v>
+        <v>0.1391729464014354</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1759070933097817</v>
+        <v>0.1748002355940844</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>122261</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104946</v>
+        <v>103568</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>143554</v>
+        <v>141346</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2006430905723162</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1722275394755689</v>
+        <v>0.1699666156935973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2355868684063794</v>
+        <v>0.2319640443300894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>169</v>
@@ -2340,19 +2340,19 @@
         <v>108672</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94084</v>
+        <v>94332</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123521</v>
+        <v>124501</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1786935687955143</v>
+        <v>0.1786935687955144</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1547056240329245</v>
+        <v>0.1551134782938113</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.203110377742849</v>
+        <v>0.2047208152476139</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>297</v>
@@ -2361,19 +2361,19 @@
         <v>230933</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>207793</v>
+        <v>206940</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>254951</v>
+        <v>255109</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1896791371773767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.170672509334066</v>
+        <v>0.1699722091153794</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2094064291510067</v>
+        <v>0.2095365366954764</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>273136</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>250143</v>
+        <v>249082</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>296591</v>
+        <v>295715</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4482440298681205</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4105098247271718</v>
+        <v>0.4087690786012781</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4867363814637025</v>
+        <v>0.4852991971184079</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>489</v>
@@ -2411,19 +2411,19 @@
         <v>277444</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>258222</v>
+        <v>259905</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>295269</v>
+        <v>297443</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4562121312396828</v>
+        <v>0.4562121312396831</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.42460451291718</v>
+        <v>0.4273712875794936</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4855215334538902</v>
+        <v>0.4890962880861923</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>788</v>
@@ -2432,19 +2432,19 @@
         <v>550580</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>518839</v>
+        <v>522192</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>579043</v>
+        <v>579751</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4522241572245305</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4261534398291866</v>
+        <v>0.4289068421266402</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4756021365404997</v>
+        <v>0.4761839784601154</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>78051</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>65785</v>
+        <v>65553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90675</v>
+        <v>90011</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1917343695225931</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1616024411448601</v>
+        <v>0.1610330272263918</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2227461256912478</v>
+        <v>0.2211131352988678</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>137</v>
@@ -2557,19 +2557,19 @@
         <v>76999</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>65851</v>
+        <v>66468</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>88971</v>
+        <v>89001</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1753299789970408</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.149946427364303</v>
+        <v>0.1513496931608519</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2025911587278315</v>
+        <v>0.2026589083777391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>256</v>
@@ -2578,19 +2578,19 @@
         <v>155050</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>138565</v>
+        <v>137498</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173972</v>
+        <v>173789</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1832211779037975</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1637406384348372</v>
+        <v>0.16247937232945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2055814013029568</v>
+        <v>0.2053650922056092</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>59832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48441</v>
+        <v>49387</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72826</v>
+        <v>73506</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1469782297325616</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1189952688950017</v>
+        <v>0.1213194717904908</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1788979174295257</v>
+        <v>0.1805690806661777</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>120</v>
@@ -2628,19 +2628,19 @@
         <v>65533</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54238</v>
+        <v>55119</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>76555</v>
+        <v>77092</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.149222329596601</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.123503362957015</v>
+        <v>0.1255093521645042</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1743198410079287</v>
+        <v>0.1755413408969873</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>200</v>
@@ -2649,19 +2649,19 @@
         <v>125365</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>108394</v>
+        <v>110644</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>141320</v>
+        <v>141829</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.148142823572517</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1280880005376903</v>
+        <v>0.1307472545449388</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1669958852135549</v>
+        <v>0.1675982872999828</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>82462</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>69275</v>
+        <v>68488</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>96156</v>
+        <v>97268</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2025704336796279</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1701753293729751</v>
+        <v>0.1682416497369068</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2362100282936124</v>
+        <v>0.2389411508729707</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>141</v>
@@ -2699,19 +2699,19 @@
         <v>79807</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>68487</v>
+        <v>68780</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>92343</v>
+        <v>92004</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1817238313723545</v>
+        <v>0.1817238313723544</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1559479453592095</v>
+        <v>0.1566145258792463</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2102689044162912</v>
+        <v>0.2094975009377464</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>250</v>
@@ -2720,19 +2720,19 @@
         <v>162269</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>143522</v>
+        <v>144089</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>180013</v>
+        <v>180080</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1917519201989712</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1695987907139506</v>
+        <v>0.1702685169842012</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2127192913506336</v>
+        <v>0.2127988806595102</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>186735</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>169195</v>
+        <v>169529</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>203604</v>
+        <v>203931</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4587169670652174</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4156299578080439</v>
+        <v>0.4164501674218467</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5001577956008282</v>
+        <v>0.5009596394350543</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>429</v>
@@ -2770,19 +2770,19 @@
         <v>216827</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>202782</v>
+        <v>201607</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>233139</v>
+        <v>230531</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4937238600340039</v>
+        <v>0.4937238600340038</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4617435237541923</v>
+        <v>0.4590681595851147</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5308677518741894</v>
+        <v>0.5249283048593346</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>691</v>
@@ -2791,19 +2791,19 @@
         <v>403561</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>384278</v>
+        <v>380066</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>428692</v>
+        <v>424960</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4768840783247142</v>
+        <v>0.4768840783247144</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4540978172218849</v>
+        <v>0.4491202521076986</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5065803555012165</v>
+        <v>0.5021711681256373</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>55364</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44926</v>
+        <v>45029</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>66490</v>
+        <v>67087</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1784807365587938</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1448312994359392</v>
+        <v>0.1451636004682236</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2143459542444395</v>
+        <v>0.2162717974726187</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>155</v>
@@ -2916,19 +2916,19 @@
         <v>85604</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>74076</v>
+        <v>72600</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>99034</v>
+        <v>97980</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1842504879106775</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1594367007587345</v>
+        <v>0.1562597283738445</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2131556857052837</v>
+        <v>0.2108879976301117</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>240</v>
@@ -2937,19 +2937,19 @@
         <v>140969</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>125151</v>
+        <v>124744</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>159108</v>
+        <v>157006</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1819405363366821</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1615253361488431</v>
+        <v>0.1609996606908222</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.205351426890423</v>
+        <v>0.2026390733885244</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>52633</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>43476</v>
+        <v>42549</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>63609</v>
+        <v>65361</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1696760129908188</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1401565130379057</v>
+        <v>0.1371686859038794</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2050608645874863</v>
+        <v>0.2107083836821193</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>140</v>
@@ -2987,19 +2987,19 @@
         <v>76349</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>65420</v>
+        <v>65310</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88188</v>
+        <v>89219</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1643304984421836</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1408060800273576</v>
+        <v>0.1405702945237557</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1898117898570633</v>
+        <v>0.1920309129323076</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>219</v>
@@ -3008,19 +3008,19 @@
         <v>128983</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>113857</v>
+        <v>113912</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>146157</v>
+        <v>145975</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1664706044870314</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1469483717925484</v>
+        <v>0.1470197877072037</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1886362332407168</v>
+        <v>0.1884011496376889</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>70152</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>58304</v>
+        <v>58767</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>84083</v>
+        <v>83351</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2261521894994844</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1879560403301399</v>
+        <v>0.1894494200748608</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2710633504605778</v>
+        <v>0.2687022733212729</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>170</v>
@@ -3058,19 +3058,19 @@
         <v>95187</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>82320</v>
+        <v>82450</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>109291</v>
+        <v>109621</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2048747110633528</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1771821100296287</v>
+        <v>0.1774601489071215</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.235231944889236</v>
+        <v>0.2359415245830811</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>265</v>
@@ -3079,19 +3079,19 @@
         <v>165339</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>147259</v>
+        <v>147564</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>182089</v>
+        <v>183196</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.213393266163331</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1900583770509777</v>
+        <v>0.1904527625699459</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2350121953232002</v>
+        <v>0.2364408273725244</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>132049</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>118492</v>
+        <v>118068</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>146194</v>
+        <v>146451</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4256910609509029</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3819869086827533</v>
+        <v>0.3806203725148739</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4712914747144947</v>
+        <v>0.4721209229819427</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>416</v>
@@ -3129,19 +3129,19 @@
         <v>207469</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>190957</v>
+        <v>192240</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>223464</v>
+        <v>223841</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4465443025837861</v>
+        <v>0.446544302583786</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4110049193154715</v>
+        <v>0.4137673555038604</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4809714563761068</v>
+        <v>0.4817833466799963</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>615</v>
@@ -3150,19 +3150,19 @@
         <v>339517</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>317306</v>
+        <v>318237</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>360536</v>
+        <v>362473</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4381955930129554</v>
+        <v>0.4381955930129553</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4095295831447139</v>
+        <v>0.4107307805234918</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4653235267856245</v>
+        <v>0.4678233839356557</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>689718</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>641480</v>
+        <v>644108</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>742027</v>
+        <v>742537</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1953909270213226</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1817253888973226</v>
+        <v>0.1824698705452377</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2102095206375426</v>
+        <v>0.2103538249578776</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>984</v>
@@ -3275,19 +3275,19 @@
         <v>726985</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>685628</v>
+        <v>689977</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>770896</v>
+        <v>772778</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1948254148551985</v>
+        <v>0.1948254148551986</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1837423436535487</v>
+        <v>0.1849077269659793</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2065932569663088</v>
+        <v>0.2070976331122404</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1672</v>
@@ -3296,19 +3296,19 @@
         <v>1416703</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1347941</v>
+        <v>1353430</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1481311</v>
+        <v>1483861</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1951003236131261</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1856308049200144</v>
+        <v>0.1863867244555238</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.203997735506882</v>
+        <v>0.204348912987806</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>489252</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>448506</v>
+        <v>445218</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>536607</v>
+        <v>532677</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1386006606682913</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1270577018496339</v>
+        <v>0.1261260947731707</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1520158729616611</v>
+        <v>0.1509025853666554</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>749</v>
@@ -3346,19 +3346,19 @@
         <v>529865</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>493307</v>
+        <v>491332</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>566834</v>
+        <v>568406</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1419990384957626</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1322018707589703</v>
+        <v>0.1316725619658855</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1519065353083944</v>
+        <v>0.1523278768098675</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1223</v>
@@ -3367,19 +3367,19 @@
         <v>1019117</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>960910</v>
+        <v>959828</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1073650</v>
+        <v>1077509</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1403470071452758</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1323310434460167</v>
+        <v>0.1321820718175893</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1478569471749576</v>
+        <v>0.1483884857355007</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>682661</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>628409</v>
+        <v>633790</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>735112</v>
+        <v>735514</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1933915891097556</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1780223951410737</v>
+        <v>0.1795468816812927</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2082504921717236</v>
+        <v>0.208364387450877</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>951</v>
@@ -3417,19 +3417,19 @@
         <v>695413</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>654283</v>
+        <v>657367</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>741372</v>
+        <v>737602</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.186364467927738</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1753420116043351</v>
+        <v>0.176168381780002</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1986812355567153</v>
+        <v>0.1976706531488609</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1573</v>
@@ -3438,19 +3438,19 @@
         <v>1378074</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1310503</v>
+        <v>1311976</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1447357</v>
+        <v>1450309</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1897805167268208</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1804750627258621</v>
+        <v>0.1806779361699655</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1993218683386014</v>
+        <v>0.1997283772989887</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>1668310</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1601842</v>
+        <v>1595570</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1735404</v>
+        <v>1727436</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.4726168232006306</v>
+        <v>0.4726168232006305</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4537871128989586</v>
+        <v>0.4520105034784295</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4916239939017573</v>
+        <v>0.4893669533795378</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2676</v>
@@ -3488,19 +3488,19 @@
         <v>1779205</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1729031</v>
+        <v>1731510</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1837223</v>
+        <v>1841606</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.476811078721301</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4633650401572549</v>
+        <v>0.4640293516200107</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4923595628550627</v>
+        <v>0.4935339434881889</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4266</v>
@@ -3509,19 +3509,19 @@
         <v>3447514</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3353308</v>
+        <v>3362296</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3526655</v>
+        <v>3532394</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4747721525147774</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4617985795092966</v>
+        <v>0.4630363513208969</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4856709364442413</v>
+        <v>0.4864613602672209</v>
       </c>
     </row>
     <row r="43">
